--- a/test git.xlsx
+++ b/test git.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,71 +417,71 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:R17" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>510</v>
+        <v>706</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>813</v>
+        <v>178</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>931</v>
+        <v>898</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <v>899</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>836</v>
+        <v>267</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>549</v>
+        <v>241</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>121</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>846</v>
+        <v>240</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>140</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>721</v>
+        <v>578</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>940</v>
+        <v>759</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>608</v>
+        <v>847</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>755</v>
+        <v>405</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>898</v>
+        <v>141</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>605</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -489,72 +489,72 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B27" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>246</v>
+        <f t="shared" ref="B3:Q33" ca="1" si="1">RANDBETWEEN(1,1000)</f>
+        <v>190</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>793</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>282</v>
+        <v>885</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>414</v>
+        <v>641</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>886</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>618</v>
+        <v>196</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>471</v>
+        <v>887</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>124</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>658</v>
+        <v>205</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>610</v>
+        <v>856</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>728</v>
+        <v>206</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>502</v>
+        <v>678</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -563,71 +563,71 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>285</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>697</v>
+        <v>460</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>289</v>
+        <v>527</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>916</v>
+        <v>866</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>901</v>
+        <v>504</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>463</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>706</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>704</v>
+        <v>375</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>977</v>
+        <v>201</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>644</v>
+        <v>413</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>897</v>
+        <v>124</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>949</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>689</v>
+        <v>624</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>710</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -636,71 +636,71 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>643</v>
+        <v>979</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>795</v>
+        <v>234</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>418</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>849</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>174</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>690</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>873</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>292</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>697</v>
+        <v>416</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>998</v>
+        <v>509</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>943</v>
+        <v>297</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>695</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -709,71 +709,71 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>404</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>573</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>909</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>927</v>
+        <v>454</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>808</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>708</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>697</v>
+        <v>492</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>236</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>434</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>702</v>
+        <v>840</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>784</v>
+        <v>687</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>386</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -782,71 +782,71 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>821</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>651</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>593</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>237</v>
+        <v>920</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>141</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>437</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>927</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>601</v>
+        <v>315</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>733</v>
+        <v>961</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>652</v>
+        <v>74</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>907</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -855,71 +855,71 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>991</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
+        <v>356</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>660</v>
+        <v>799</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>903</v>
+        <v>170</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>517</v>
+        <v>882</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>669</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>426</v>
+        <v>651</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>694</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>218</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>829</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>645</v>
+        <v>807</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>397</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -928,71 +928,71 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>716</v>
+        <v>245</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>758</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>556</v>
+        <v>957</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>933</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
+        <v>427</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>958</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>571</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>731</v>
+        <v>27</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>551</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>151</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>895</v>
+        <v>365</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>639</v>
+        <v>818</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>897</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1001,71 +1001,71 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
+        <v>710</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>970</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>751</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>854</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="0"/>
+        <v>296</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>466</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>355</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>721</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>542</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>610</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>232</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>784</v>
-      </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>502</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <v>807</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1074,71 +1074,71 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>532</v>
+        <v>963</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>860</v>
+        <v>534</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
+        <v>581</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>796</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>592</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>758</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>511</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="0"/>
+        <v>551</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ca="1" si="0"/>
         <v>912</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>829</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>438</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>846</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="0"/>
-        <v>669</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="0"/>
-        <v>821</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="0"/>
-        <v>752</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ca="1" si="0"/>
-        <v>606</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" ca="1" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ca="1" si="0"/>
-        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1147,71 +1147,71 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>850</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>606</v>
+        <v>692</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>691</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>738</v>
+        <v>670</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>809</v>
+        <v>737</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>559</v>
+        <v>445</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>923</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <v>774</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>659</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>585</v>
+        <v>116</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>767</v>
+        <v>165</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>944</v>
+        <v>179</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>433</v>
+        <v>598</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>770</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1220,71 +1220,71 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>554</v>
+        <v>730</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>835</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>687</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>517</v>
+        <v>116</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>446</v>
+        <v>202</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>551</v>
+        <v>307</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>840</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>535</v>
+        <v>637</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>536</v>
+        <v>714</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>667</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>426</v>
+        <v>834</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1293,71 +1293,71 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>724</v>
+        <v>375</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>685</v>
+        <v>140</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>558</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>806</v>
+        <v>642</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>460</v>
+        <v>653</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>755</v>
+        <v>548</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
+        <v>830</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>967</v>
+        <v>812</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>874</v>
+        <v>188</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>965</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>299</v>
+        <v>871</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <v>534</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>622</v>
+        <v>127</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="0"/>
-        <v>400</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1366,71 +1366,71 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>422</v>
+        <v>546</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>857</v>
+        <v>648</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>701</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>968</v>
+        <v>882</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
+        <v>497</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
         <v>88</v>
       </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>689</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>905</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="0"/>
-        <v>605</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="0"/>
-        <v>524</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>924</v>
-      </c>
       <c r="P15">
         <f t="shared" ca="1" si="0"/>
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>973</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1439,71 +1439,71 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>617</v>
+        <v>962</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>747</v>
+        <v>649</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>442</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>612</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>795</v>
+        <v>109</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>433</v>
+        <v>299</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>680</v>
+        <v>959</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>734</v>
+        <v>458</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>515</v>
+        <v>634</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>864</v>
+        <v>296</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
-        <v>658</v>
+        <v>297</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="0"/>
-        <v>998</v>
+        <v>73</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="0"/>
-        <v>503</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1512,71 +1512,71 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>449</v>
+        <v>770</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>996</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>840</v>
+        <v>945</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
         <v>625</v>
       </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>822</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>697</v>
-      </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>832</v>
+        <v>267</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>796</v>
+        <v>555</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>739</v>
+        <v>410</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>921</v>
+        <v>778</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>747</v>
+        <v>284</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>909</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>797</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>52</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>682</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="C17:R27" ca="1" si="2">RANDBETWEEN(1,1000)</f>
-        <v>475</v>
+        <f t="shared" ref="C17:R32" ca="1" si="2">RANDBETWEEN(1,1000)</f>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1585,71 +1585,71 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>631</v>
+        <v>894</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>794</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>821</v>
+        <v>478</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>720</v>
+        <v>426</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>755</v>
+        <v>85</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>932</v>
+        <v>614</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>790</v>
+        <v>320</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
-        <v>658</v>
+        <v>359</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
-        <v>807</v>
+        <v>456</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>393</v>
+        <v>706</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>927</v>
+        <v>256</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="2"/>
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>306</v>
+        <v>572</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="2"/>
-        <v>652</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1658,71 +1658,71 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>383</v>
+        <v>660</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>895</v>
+        <v>161</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>623</v>
+        <v>1000</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>841</v>
+        <v>963</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>771</v>
+        <v>904</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>294</v>
+        <v>543</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>834</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>931</v>
+        <v>71</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>827</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>989</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>994</v>
+        <v>737</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1731,71 +1731,71 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>195</v>
+        <v>794</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>435</v>
+        <v>933</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>859</v>
+        <v>652</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>147</v>
+        <v>497</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>717</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>740</v>
+        <v>589</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>870</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>364</v>
+        <v>923</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>467</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="2"/>
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
-        <v>933</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1804,71 +1804,71 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>556</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>560</v>
+        <v>933</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>793</v>
+        <v>470</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>922</v>
+        <v>482</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>316</v>
+        <v>769</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>870</v>
+        <v>525</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="2"/>
-        <v>335</v>
+        <v>424</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>946</v>
+        <v>304</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>521</v>
+        <v>238</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>860</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>494</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>941</v>
+        <v>863</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1877,71 +1877,71 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>844</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>913</v>
+        <v>267</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>868</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>680</v>
+        <v>98</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>636</v>
+        <v>434</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>647</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>809</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="2"/>
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="2"/>
-        <v>995</v>
+        <v>717</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>377</v>
+        <v>895</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>823</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>862</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>739</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="2"/>
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="2"/>
-        <v>879</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1950,71 +1950,71 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>570</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>715</v>
+        <v>176</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>320</v>
+        <v>472</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>994</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>171</v>
+        <v>985</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>649</v>
+        <v>912</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="2"/>
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="2"/>
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="2"/>
-        <v>775</v>
+        <v>873</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>440</v>
+        <v>322</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="2"/>
-        <v>964</v>
+        <v>655</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>958</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="2"/>
-        <v>477</v>
+        <v>767</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="2"/>
-        <v>568</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2023,71 +2023,71 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
+        <v>845</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>973</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>651</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>858</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="2"/>
+        <v>914</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="2"/>
+        <v>832</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="2"/>
+        <v>758</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ca="1" si="2"/>
+        <v>754</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ca="1" si="2"/>
         <v>625</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="2"/>
-        <v>375</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="2"/>
-        <v>571</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="2"/>
-        <v>850</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>199</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>751</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="2"/>
-        <v>621</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="2"/>
-        <v>602</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="2"/>
-        <v>671</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="2"/>
-        <v>813</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="2"/>
-        <v>603</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="2"/>
-        <v>331</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="2"/>
-        <v>813</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ca="1" si="2"/>
-        <v>705</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" ca="1" si="2"/>
-        <v>973</v>
-      </c>
-      <c r="R24">
-        <f t="shared" ca="1" si="2"/>
-        <v>996</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2096,71 +2096,71 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>255</v>
+        <v>529</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>438</v>
+        <v>828</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>928</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>888</v>
+        <v>178</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>407</v>
+        <v>154</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>785</v>
+        <v>267</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>843</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="2"/>
-        <v>374</v>
+        <v>867</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="2"/>
-        <v>151</v>
+        <v>835</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="2"/>
-        <v>906</v>
+        <v>815</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="2"/>
-        <v>680</v>
+        <v>993</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>756</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="2"/>
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="2"/>
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="2"/>
-        <v>690</v>
+        <v>368</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>425</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2169,71 +2169,71 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>606</v>
+        <v>409</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>738</v>
+        <v>569</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>737</v>
+        <v>507</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>608</v>
+        <v>482</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>901</v>
+        <v>329</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>660</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="2"/>
-        <v>773</v>
+        <v>927</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="2"/>
-        <v>904</v>
+        <v>256</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="2"/>
-        <v>675</v>
+        <v>924</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="2"/>
-        <v>845</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>546</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="2"/>
-        <v>661</v>
+        <v>725</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="2"/>
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="2"/>
-        <v>762</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2242,71 +2242,728 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>924</v>
+        <v>244</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>449</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>981</v>
+        <v>895</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>878</v>
+        <v>563</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>960</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>726</v>
+        <v>366</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="2"/>
-        <v>720</v>
+        <v>941</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="2"/>
-        <v>891</v>
+        <v>325</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="2"/>
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>804</v>
+        <v>520</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="2"/>
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="2"/>
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="2"/>
-        <v>947</v>
+        <v>64</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>376</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>748</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>982</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="2"/>
+        <v>775</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="2"/>
+        <v>999</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="2"/>
+        <v>912</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="2"/>
+        <v>827</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ca="1" si="2"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>527</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>887</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>992</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="2"/>
+        <v>426</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="2"/>
+        <v>926</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="2"/>
+        <v>787</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="2"/>
+        <v>754</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="2"/>
+        <v>794</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ca="1" si="2"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>773</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>567</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>373</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>899</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>903</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>608</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="2"/>
+        <v>644</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="2"/>
+        <v>774</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="2"/>
+        <v>866</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="2"/>
+        <v>991</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="2"/>
+        <v>698</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>901</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>768</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>434</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>683</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="2"/>
+        <v>881</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="2"/>
+        <v>847</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="2"/>
+        <v>976</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="2"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>928</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>404</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>545</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>957</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>648</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="2"/>
+        <v>941</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="2"/>
+        <v>649</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="2"/>
+        <v>861</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="2"/>
+        <v>739</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="2"/>
+        <v>861</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ca="1" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="1"/>
+        <v>609</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="1"/>
+        <v>497</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="1"/>
+        <v>505</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="C33:R36" ca="1" si="3">RANDBETWEEN(1,1000)</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B36" ca="1" si="4">RANDBETWEEN(1,1000)</f>
+        <v>636</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="3"/>
+        <v>914</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>687</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="3"/>
+        <v>365</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="3"/>
+        <v>999</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="3"/>
+        <v>573</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="3"/>
+        <v>679</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="3"/>
+        <v>980</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="3"/>
+        <v>603</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="3"/>
+        <v>774</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ca="1" si="3"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="4"/>
+        <v>962</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>849</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>832</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>654</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
+        <v>874</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="3"/>
+        <v>545</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="3"/>
+        <v>893</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="3"/>
+        <v>745</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="3"/>
+        <v>773</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="3"/>
+        <v>716</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ca="1" si="3"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="4"/>
+        <v>538</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>329</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>271</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
+        <v>773</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="3"/>
+        <v>685</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="3"/>
+        <v>374</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="3"/>
+        <v>691</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="3"/>
+        <v>699</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="3"/>
+        <v>593</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ca="1" si="3"/>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
